--- a/main/upload/file.xlsx
+++ b/main/upload/file.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\测试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E864EF55-BB84-4717-B06A-F782110BF76E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -123,12 +129,24 @@
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"showflag": 1, "datas": [{"paramValue": "18710548141", "paramType": "String", "paramName": "phone"}, {"paramValue": "yr123456", "paramType": "String", "paramName": "auth"}]}</t>
+  </si>
+  <si>
+    <t>/common/v1/auth/user/login</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,24 +787,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -794,7 +812,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="超链接" xfId="43" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -803,24 +821,32 @@
     <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -862,7 +888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,9 +920,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,6 +972,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1103,14 +1165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1121,7 +1183,7 @@
     <col min="12" max="12" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="409.5">
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1192,10 +1254,24 @@
       </c>
       <c r="M2" s="1"/>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1203,12 +1279,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1216,12 +1292,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/upload/file.xlsx
+++ b/main/upload/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E864EF55-BB84-4717-B06A-F782110BF76E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F210D2-0CA3-4583-82FE-D91BA73D95E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="2340" windowWidth="22815" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>method</t>
   </si>
@@ -60,40 +57,8 @@
     <t>post</t>
   </si>
   <si>
-    <t>uin=400006815</t>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>headers</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uc-qa.youyu.cn/v1/users/check </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"X-device": "Android||osver=9||romver=HUAWEI||model=BLA-AL00 9.0.0.182(C00E88R1P15)||identity=8b099c52625fc895||lang=zh-hans||network=2||channel=101010001409",
-"X-product":" broker||version=2.12.2",
-"Cookie": "loginid=90948;__jsluid=d87dc892d1c894ddfd6074217a21ded1;session=;uin="
-"App-Ver": "2.12.2",
-"X-requestid": "3c7284dc-dccd-4248-a860-5de08f99a5e8",
-"Accept-Language": "zh-hans",
-"Content-Type": "application/json",
-"Content-Length": "51",
-"Host": "uc-qa.youyu.cn",
-"Connection": "Keep-Alive",
-"Accept-Encoding": "gzip",
-"User-Agent": "okhttp/3.11.0",
-}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"aver":1,"type":"mobile","value":"+8610111112234"}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -110,7 +75,7 @@
       </rPr>
       <t>epen_caseid</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -127,7 +92,7 @@
       </rPr>
       <t>epend_casedata</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type": "application/json"}</t>
@@ -139,14 +104,18 @@
     <t>/common/v1/auth/user/login</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,13 +283,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -632,7 +594,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -760,22 +722,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="41" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -785,8 +737,11 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
@@ -813,7 +768,6 @@
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1169,14 +1123,14 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
@@ -1184,97 +1138,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <v>200</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>23</v>
+    <row r="3" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1286,7 +1234,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1299,7 +1247,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>